--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12822.45631591124</v>
+        <v>2551282.114090385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12822.45631591124</v>
+        <v>2551282.114090385</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28621.8147607109</v>
+        <v>1719997.851385932</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28621.8147607109</v>
+        <v>1719997.851385932</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1038064362.890206</v>
+        <v>44093147.1778302</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11473.17696789495</v>
+        <v>1293716.910203274</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20357.10365151734</v>
+        <v>2143505.72006057</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29241.03033513971</v>
+        <v>2993294.529917867</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38807.68967479351</v>
+        <v>3765964.44437662</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48499.38326310292</v>
+        <v>4565556.214361465</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57616.47855298252</v>
+        <v>5441005.311633764</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66604.4670169764</v>
+        <v>6290441.195550759</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75591.91139063226</v>
+        <v>7139877.079467754</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85157.72296590888</v>
+        <v>7912268.990444602</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94855.99470726131</v>
+        <v>8711012.934796335</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104554.2664486137</v>
+        <v>9509756.879148073</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114252.5381899661</v>
+        <v>10308500.82349982</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123950.8099313186</v>
+        <v>11107244.76785156</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133649.081672671</v>
+        <v>11905988.71220331</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143354.3574217191</v>
+        <v>12703993.74032497</v>
       </c>
     </row>
   </sheetData>
